--- a/Code/Results/Cases/Case_1_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9976514603044206</v>
+        <v>1.023704012917921</v>
       </c>
       <c r="D2">
-        <v>1.039244320186714</v>
+        <v>1.049394706718483</v>
       </c>
       <c r="E2">
-        <v>1.004447858440042</v>
+        <v>1.024287885566793</v>
       </c>
       <c r="F2">
-        <v>1.034650959346564</v>
+        <v>1.05242664932019</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047182881423811</v>
+        <v>1.037977565431155</v>
       </c>
       <c r="J2">
-        <v>1.019902643417094</v>
+        <v>1.028882740714751</v>
       </c>
       <c r="K2">
-        <v>1.050182709151049</v>
+        <v>1.052151885913943</v>
       </c>
       <c r="L2">
-        <v>1.015845573386903</v>
+        <v>1.027116827823794</v>
       </c>
       <c r="M2">
-        <v>1.045647769782205</v>
+        <v>1.055175413532968</v>
       </c>
       <c r="N2">
-        <v>1.010583947916501</v>
+        <v>1.013676984174211</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.001312820641314</v>
+        <v>1.024486955413413</v>
       </c>
       <c r="D3">
-        <v>1.042178891493313</v>
+        <v>1.050044013880634</v>
       </c>
       <c r="E3">
-        <v>1.007306535588539</v>
+        <v>1.024948177048208</v>
       </c>
       <c r="F3">
-        <v>1.038208080464198</v>
+        <v>1.053244022324577</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048188639729827</v>
+        <v>1.038147354875485</v>
       </c>
       <c r="J3">
-        <v>1.021767760709769</v>
+        <v>1.02930513839509</v>
       </c>
       <c r="K3">
-        <v>1.052299096736729</v>
+        <v>1.052613851393742</v>
       </c>
       <c r="L3">
-        <v>1.017846773810722</v>
+        <v>1.027584578150941</v>
       </c>
       <c r="M3">
-        <v>1.048374352548957</v>
+        <v>1.055805618292446</v>
       </c>
       <c r="N3">
-        <v>1.011212012440027</v>
+        <v>1.01381815025647</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.003640688241228</v>
+        <v>1.024994320964799</v>
       </c>
       <c r="D4">
-        <v>1.044046409309611</v>
+        <v>1.05046463775939</v>
       </c>
       <c r="E4">
-        <v>1.009129971228382</v>
+        <v>1.025376467364823</v>
       </c>
       <c r="F4">
-        <v>1.040474107519668</v>
+        <v>1.053773920522564</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048819890495092</v>
+        <v>1.038256342096704</v>
       </c>
       <c r="J4">
-        <v>1.022951721113787</v>
+        <v>1.029578539533939</v>
       </c>
       <c r="K4">
-        <v>1.053640780260589</v>
+        <v>1.052912564935757</v>
       </c>
       <c r="L4">
-        <v>1.019119440395943</v>
+        <v>1.027887598131265</v>
       </c>
       <c r="M4">
-        <v>1.050107405117343</v>
+        <v>1.056213752456323</v>
       </c>
       <c r="N4">
-        <v>1.011610559347152</v>
+        <v>1.013909484133034</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004609733326432</v>
+        <v>1.025207795049034</v>
       </c>
       <c r="D5">
-        <v>1.044824190299341</v>
+        <v>1.050641580617352</v>
       </c>
       <c r="E5">
-        <v>1.009890416167955</v>
+        <v>1.025556767098993</v>
       </c>
       <c r="F5">
-        <v>1.041418439316664</v>
+        <v>1.053996927713056</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049080667276191</v>
+        <v>1.038301949373271</v>
       </c>
       <c r="J5">
-        <v>1.023444108852582</v>
+        <v>1.029693495638608</v>
       </c>
       <c r="K5">
-        <v>1.05419831878324</v>
+        <v>1.053038092510945</v>
       </c>
       <c r="L5">
-        <v>1.019649276530448</v>
+        <v>1.028015071129478</v>
       </c>
       <c r="M5">
-        <v>1.05082868526692</v>
+        <v>1.056385413893836</v>
       </c>
       <c r="N5">
-        <v>1.011776271355435</v>
+        <v>1.013947878031158</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004771886126724</v>
+        <v>1.025243648649691</v>
       </c>
       <c r="D6">
-        <v>1.044954358827661</v>
+        <v>1.050671296644462</v>
       </c>
       <c r="E6">
-        <v>1.010017743831573</v>
+        <v>1.025587054616055</v>
       </c>
       <c r="F6">
-        <v>1.041576516327882</v>
+        <v>1.0540343854939</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049124185228367</v>
+        <v>1.038309594642772</v>
       </c>
       <c r="J6">
-        <v>1.023526472978217</v>
+        <v>1.029712798308662</v>
       </c>
       <c r="K6">
-        <v>1.054291554475321</v>
+        <v>1.053059166072092</v>
       </c>
       <c r="L6">
-        <v>1.019737937586383</v>
+        <v>1.028036479256366</v>
       </c>
       <c r="M6">
-        <v>1.050949368723161</v>
+        <v>1.05641424134969</v>
       </c>
       <c r="N6">
-        <v>1.011803988615888</v>
+        <v>1.013954324354138</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.003653673974759</v>
+        <v>1.024997172720342</v>
       </c>
       <c r="D7">
-        <v>1.044056830598024</v>
+        <v>1.050467001638711</v>
       </c>
       <c r="E7">
-        <v>1.009140156181391</v>
+        <v>1.025378875572585</v>
       </c>
       <c r="F7">
-        <v>1.040486758060838</v>
+        <v>1.053776899423169</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048823392985351</v>
+        <v>1.038256952333231</v>
       </c>
       <c r="J7">
-        <v>1.022958321270046</v>
+        <v>1.029580075512854</v>
       </c>
       <c r="K7">
-        <v>1.053648255495385</v>
+        <v>1.052914242446062</v>
       </c>
       <c r="L7">
-        <v>1.019126540324662</v>
+        <v>1.027889301105775</v>
       </c>
       <c r="M7">
-        <v>1.050117071327207</v>
+        <v>1.056216045885616</v>
       </c>
       <c r="N7">
-        <v>1.011612780761952</v>
+        <v>1.013909997166016</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9988975602003469</v>
+        <v>1.023968455746908</v>
       </c>
       <c r="D8">
-        <v>1.040242673767266</v>
+        <v>1.049614042771164</v>
       </c>
       <c r="E8">
-        <v>1.005419518034631</v>
+        <v>1.024510818178264</v>
       </c>
       <c r="F8">
-        <v>1.035860633571439</v>
+        <v>1.052702675321351</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047526876104062</v>
+        <v>1.03803512787527</v>
       </c>
       <c r="J8">
-        <v>1.020537790295225</v>
+        <v>1.0290254743314</v>
       </c>
       <c r="K8">
-        <v>1.050903786816966</v>
+        <v>1.052308051651017</v>
       </c>
       <c r="L8">
-        <v>1.016526575548226</v>
+        <v>1.027274832042936</v>
       </c>
       <c r="M8">
-        <v>1.046575808606439</v>
+        <v>1.055388320696573</v>
       </c>
       <c r="N8">
-        <v>1.01079785762377</v>
+        <v>1.013724693707391</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9901868475389491</v>
+        <v>1.022161544357699</v>
       </c>
       <c r="D9">
-        <v>1.033273102349727</v>
+        <v>1.048114776451254</v>
       </c>
       <c r="E9">
-        <v>0.998653573289746</v>
+        <v>1.022989221290179</v>
       </c>
       <c r="F9">
-        <v>1.027424721186114</v>
+        <v>1.05081753512059</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045088937248601</v>
+        <v>1.037637555695681</v>
       </c>
       <c r="J9">
-        <v>1.016090956917313</v>
+        <v>1.028048877206913</v>
       </c>
       <c r="K9">
-        <v>1.045848465176168</v>
+        <v>1.051238334209697</v>
       </c>
       <c r="L9">
-        <v>1.011768533165255</v>
+        <v>1.026194834354435</v>
       </c>
       <c r="M9">
-        <v>1.040087987190032</v>
+        <v>1.053932521941787</v>
       </c>
       <c r="N9">
-        <v>1.009299699769094</v>
+        <v>1.013398109177758</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9841378408974021</v>
+        <v>1.020960957163914</v>
       </c>
       <c r="D10">
-        <v>1.028447244904557</v>
+        <v>1.04711791235629</v>
       </c>
       <c r="E10">
-        <v>0.9939900685680692</v>
+        <v>1.021980337469564</v>
       </c>
       <c r="F10">
-        <v>1.021593819746781</v>
+        <v>1.049566136307951</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043355218600222</v>
+        <v>1.037368056887984</v>
       </c>
       <c r="J10">
-        <v>1.012995246149544</v>
+        <v>1.027398346157633</v>
       </c>
       <c r="K10">
-        <v>1.042321193663347</v>
+        <v>1.050524252634974</v>
       </c>
       <c r="L10">
-        <v>1.008468688692501</v>
+        <v>1.0254767860287</v>
       </c>
       <c r="M10">
-        <v>1.035583837653747</v>
+        <v>1.052963954750088</v>
       </c>
       <c r="N10">
-        <v>1.008256176258149</v>
+        <v>1.013180376197445</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9814564113755893</v>
+        <v>1.020442066030526</v>
       </c>
       <c r="D11">
-        <v>1.026312105364773</v>
+        <v>1.04668691270539</v>
       </c>
       <c r="E11">
-        <v>0.991931653137611</v>
+        <v>1.021544811787307</v>
       </c>
       <c r="F11">
-        <v>1.019016118807689</v>
+        <v>1.049025566107074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042577511406084</v>
+        <v>1.037250315167748</v>
       </c>
       <c r="J11">
-        <v>1.011621503755112</v>
+        <v>1.02711680167035</v>
       </c>
       <c r="K11">
-        <v>1.040754306670247</v>
+        <v>1.050214845037507</v>
       </c>
       <c r="L11">
-        <v>1.007007347738791</v>
+        <v>1.025166343560417</v>
       </c>
       <c r="M11">
-        <v>1.033588113451664</v>
+        <v>1.052545044010489</v>
       </c>
       <c r="N11">
-        <v>1.007793001759685</v>
+        <v>1.013086098935921</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9804506361712517</v>
+        <v>1.020249474492886</v>
       </c>
       <c r="D12">
-        <v>1.025511918694402</v>
+        <v>1.04652691985417</v>
       </c>
       <c r="E12">
-        <v>0.9911609405185972</v>
+        <v>1.021383239608566</v>
       </c>
       <c r="F12">
-        <v>1.018050361234877</v>
+        <v>1.048824970887943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04228446541542</v>
+        <v>1.037206424144171</v>
       </c>
       <c r="J12">
-        <v>1.011106039623465</v>
+        <v>1.027012245807087</v>
       </c>
       <c r="K12">
-        <v>1.040166145783069</v>
+        <v>1.050099887993356</v>
       </c>
       <c r="L12">
-        <v>1.00645946507512</v>
+        <v>1.025051104548288</v>
       </c>
       <c r="M12">
-        <v>1.032839727116559</v>
+        <v>1.052389516711111</v>
       </c>
       <c r="N12">
-        <v>1.007619193483392</v>
+        <v>1.013051081023612</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9806668278265813</v>
+        <v>1.020290779316611</v>
       </c>
       <c r="D13">
-        <v>1.025683887152786</v>
+        <v>1.046561234322763</v>
       </c>
       <c r="E13">
-        <v>0.9913265423928684</v>
+        <v>1.021417888241453</v>
       </c>
       <c r="F13">
-        <v>1.018257900062933</v>
+        <v>1.048867990309658</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042347515435748</v>
+        <v>1.0372158459873</v>
       </c>
       <c r="J13">
-        <v>1.011216846769206</v>
+        <v>1.027034672364925</v>
       </c>
       <c r="K13">
-        <v>1.040292589995789</v>
+        <v>1.050124547969171</v>
       </c>
       <c r="L13">
-        <v>1.006577220691315</v>
+        <v>1.025075820374439</v>
       </c>
       <c r="M13">
-        <v>1.033000583569626</v>
+        <v>1.052422874429385</v>
       </c>
       <c r="N13">
-        <v>1.007656556863572</v>
+        <v>1.0130585924381</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9813734756346364</v>
+        <v>1.020426143329562</v>
       </c>
       <c r="D14">
-        <v>1.026246108108014</v>
+        <v>1.046673685602307</v>
       </c>
       <c r="E14">
-        <v>0.9918680722598426</v>
+        <v>1.021531452059601</v>
       </c>
       <c r="F14">
-        <v>1.018936460016878</v>
+        <v>1.049008980819627</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042553373906108</v>
+        <v>1.037246690310168</v>
       </c>
       <c r="J14">
-        <v>1.011579002472883</v>
+        <v>1.027108158587752</v>
       </c>
       <c r="K14">
-        <v>1.040705815784141</v>
+        <v>1.050205343240567</v>
       </c>
       <c r="L14">
-        <v>1.006962164290446</v>
+        <v>1.025156816367251</v>
       </c>
       <c r="M14">
-        <v>1.033526397727184</v>
+        <v>1.052532186538504</v>
       </c>
       <c r="N14">
-        <v>1.007778671091985</v>
+        <v>1.013083204324063</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9818075563191154</v>
+        <v>1.02050956519678</v>
       </c>
       <c r="D15">
-        <v>1.026591561972616</v>
+        <v>1.046742983808741</v>
       </c>
       <c r="E15">
-        <v>0.9922009072061342</v>
+        <v>1.021601449229596</v>
       </c>
       <c r="F15">
-        <v>1.019353434941019</v>
+        <v>1.04909587584781</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042679653868761</v>
+        <v>1.037265673800462</v>
       </c>
       <c r="J15">
-        <v>1.011801444142081</v>
+        <v>1.027153438868155</v>
       </c>
       <c r="K15">
-        <v>1.040959596628236</v>
+        <v>1.050255120040936</v>
       </c>
       <c r="L15">
-        <v>1.007198662180335</v>
+        <v>1.025206730407131</v>
       </c>
       <c r="M15">
-        <v>1.033849422124648</v>
+        <v>1.052599547305363</v>
       </c>
       <c r="N15">
-        <v>1.007853673902781</v>
+        <v>1.013098368647538</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9843144523244433</v>
+        <v>1.020995414875685</v>
       </c>
       <c r="D16">
-        <v>1.028587966049451</v>
+        <v>1.047146530237703</v>
       </c>
       <c r="E16">
-        <v>0.994125833996935</v>
+        <v>1.022009270016637</v>
       </c>
       <c r="F16">
-        <v>1.021763750504481</v>
+        <v>1.049602039621798</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043406254013711</v>
+        <v>1.037375849027154</v>
       </c>
       <c r="J16">
-        <v>1.013085699331938</v>
+        <v>1.027417034393291</v>
       </c>
       <c r="K16">
-        <v>1.042424332023354</v>
+        <v>1.050544782803601</v>
       </c>
       <c r="L16">
-        <v>1.008564972231737</v>
+        <v>1.02549739925065</v>
       </c>
       <c r="M16">
-        <v>1.035715308511932</v>
+        <v>1.05299176686188</v>
       </c>
       <c r="N16">
-        <v>1.008286671730279</v>
+        <v>1.013186633163317</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9858700194989811</v>
+        <v>1.021300436820693</v>
       </c>
       <c r="D17">
-        <v>1.029827891253477</v>
+        <v>1.047399839506207</v>
       </c>
       <c r="E17">
-        <v>0.9953226504151812</v>
+        <v>1.022265442078388</v>
       </c>
       <c r="F17">
-        <v>1.023261285373417</v>
+        <v>1.049919890746407</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043854724265264</v>
+        <v>1.037444679291006</v>
       </c>
       <c r="J17">
-        <v>1.013882234391138</v>
+        <v>1.027582419234415</v>
       </c>
       <c r="K17">
-        <v>1.043332389326137</v>
+        <v>1.050726426694587</v>
       </c>
       <c r="L17">
-        <v>1.00941319056884</v>
+        <v>1.02567985691948</v>
       </c>
       <c r="M17">
-        <v>1.036873392704155</v>
+        <v>1.053237927081987</v>
       </c>
       <c r="N17">
-        <v>1.008555204776606</v>
+        <v>1.013242000182828</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.986771387501772</v>
+        <v>1.021478444528505</v>
       </c>
       <c r="D18">
-        <v>1.030546745923516</v>
+        <v>1.047547653003548</v>
       </c>
       <c r="E18">
-        <v>0.9960169796135099</v>
+        <v>1.022414990875913</v>
       </c>
       <c r="F18">
-        <v>1.024129693617875</v>
+        <v>1.050105412606226</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044113712792712</v>
+        <v>1.037484725750232</v>
       </c>
       <c r="J18">
-        <v>1.014343642588601</v>
+        <v>1.027678898810883</v>
       </c>
       <c r="K18">
-        <v>1.043858241799121</v>
+        <v>1.050832356562037</v>
       </c>
       <c r="L18">
-        <v>1.009904821193598</v>
+        <v>1.025786327336031</v>
       </c>
       <c r="M18">
-        <v>1.03754452200964</v>
+        <v>1.053381554865582</v>
       </c>
       <c r="N18">
-        <v>1.008710747636861</v>
+        <v>1.013274295043252</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9870777311592344</v>
+        <v>1.021539156371388</v>
       </c>
       <c r="D19">
-        <v>1.030791122871445</v>
+        <v>1.047598064121428</v>
       </c>
       <c r="E19">
-        <v>0.9962530987260488</v>
+        <v>1.022466004796363</v>
       </c>
       <c r="F19">
-        <v>1.024424947012202</v>
+        <v>1.05016869184487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044201584156114</v>
+        <v>1.037498363390919</v>
       </c>
       <c r="J19">
-        <v>1.01450043430879</v>
+        <v>1.027711798085988</v>
       </c>
       <c r="K19">
-        <v>1.044036905115808</v>
+        <v>1.050868472478418</v>
       </c>
       <c r="L19">
-        <v>1.010071930938591</v>
+        <v>1.025822638745615</v>
       </c>
       <c r="M19">
-        <v>1.037772627775032</v>
+        <v>1.053430536090101</v>
       </c>
       <c r="N19">
-        <v>1.008763601077732</v>
+        <v>1.013285306777997</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9857037422118911</v>
+        <v>1.021267701161233</v>
       </c>
       <c r="D20">
-        <v>1.029695313164853</v>
+        <v>1.047372655340613</v>
       </c>
       <c r="E20">
-        <v>0.9951946333769539</v>
+        <v>1.022237943989914</v>
       </c>
       <c r="F20">
-        <v>1.023101141748092</v>
+        <v>1.04988577541674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04380687704082</v>
+        <v>1.037437304903482</v>
       </c>
       <c r="J20">
-        <v>1.013797105798979</v>
+        <v>1.027564673611094</v>
       </c>
       <c r="K20">
-        <v>1.043235358087842</v>
+        <v>1.050706940075216</v>
       </c>
       <c r="L20">
-        <v>1.009322508940844</v>
+        <v>1.025660276175588</v>
       </c>
       <c r="M20">
-        <v>1.036749594243815</v>
+        <v>1.053211511576753</v>
       </c>
       <c r="N20">
-        <v>1.008526506700029</v>
+        <v>1.013236059799982</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9811656588445946</v>
+        <v>1.02038627790863</v>
       </c>
       <c r="D21">
-        <v>1.026080746247875</v>
+        <v>1.046640568736758</v>
       </c>
       <c r="E21">
-        <v>0.9917087764037305</v>
+        <v>1.021498004768697</v>
       </c>
       <c r="F21">
-        <v>1.018736872538364</v>
+        <v>1.048967457182715</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042492869811241</v>
+        <v>1.037237611739865</v>
       </c>
       <c r="J21">
-        <v>1.011472501674983</v>
+        <v>1.02708651810084</v>
       </c>
       <c r="K21">
-        <v>1.040584302553235</v>
+        <v>1.050181551842523</v>
       </c>
       <c r="L21">
-        <v>1.006848949723194</v>
+        <v>1.025132963035398</v>
       </c>
       <c r="M21">
-        <v>1.033371756356565</v>
+        <v>1.052499994766774</v>
       </c>
       <c r="N21">
-        <v>1.007742760737098</v>
+        <v>1.01307595670951</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9782556105215855</v>
+        <v>1.019832947778163</v>
       </c>
       <c r="D22">
-        <v>1.023766901353604</v>
+        <v>1.046180854175439</v>
       </c>
       <c r="E22">
-        <v>0.9894815045498223</v>
+        <v>1.021033942127719</v>
       </c>
       <c r="F22">
-        <v>1.015944769399532</v>
+        <v>1.048391212771472</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041642508077169</v>
+        <v>1.037111151616179</v>
       </c>
       <c r="J22">
-        <v>1.009980769313211</v>
+        <v>1.026786012388898</v>
       </c>
       <c r="K22">
-        <v>1.038881790504748</v>
+        <v>1.049851050758103</v>
       </c>
       <c r="L22">
-        <v>1.005264254956909</v>
+        <v>1.024801844234825</v>
       </c>
       <c r="M22">
-        <v>1.031206839548229</v>
+        <v>1.052053069624916</v>
       </c>
       <c r="N22">
-        <v>1.007239744734231</v>
+        <v>1.012975298754973</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.979803814735247</v>
+        <v>1.020126196827173</v>
       </c>
       <c r="D23">
-        <v>1.024997513248079</v>
+        <v>1.046424502139066</v>
       </c>
       <c r="E23">
-        <v>0.9906656836255487</v>
+        <v>1.021279839280239</v>
       </c>
       <c r="F23">
-        <v>1.017429594861585</v>
+        <v>1.048696582148432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04209563425736</v>
+        <v>1.037178276050709</v>
       </c>
       <c r="J23">
-        <v>1.010774491839782</v>
+        <v>1.026945303430898</v>
       </c>
       <c r="K23">
-        <v>1.039787779030145</v>
+        <v>1.050026271089048</v>
       </c>
       <c r="L23">
-        <v>1.00610719287842</v>
+        <v>1.024977335911459</v>
       </c>
       <c r="M23">
-        <v>1.032358494300606</v>
+        <v>1.052289951353618</v>
       </c>
       <c r="N23">
-        <v>1.007507396213686</v>
+        <v>1.013028658788145</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9857788941725671</v>
+        <v>1.021282492707784</v>
       </c>
       <c r="D24">
-        <v>1.029755232990913</v>
+        <v>1.047384938502123</v>
       </c>
       <c r="E24">
-        <v>0.9952524903480277</v>
+        <v>1.022250368797324</v>
       </c>
       <c r="F24">
-        <v>1.023173519429229</v>
+        <v>1.049901190280809</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043828505157984</v>
+        <v>1.037440637384166</v>
       </c>
       <c r="J24">
-        <v>1.013835581611986</v>
+        <v>1.027572692053199</v>
       </c>
       <c r="K24">
-        <v>1.043279214062464</v>
+        <v>1.050715745301542</v>
       </c>
       <c r="L24">
-        <v>1.009363493695582</v>
+        <v>1.025669123729141</v>
       </c>
       <c r="M24">
-        <v>1.036805546899173</v>
+        <v>1.053223447462506</v>
       </c>
       <c r="N24">
-        <v>1.008539477483039</v>
+        <v>1.013238744002689</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9924798672011153</v>
+        <v>1.022627973542318</v>
       </c>
       <c r="D25">
-        <v>1.035105593774328</v>
+        <v>1.048501915093876</v>
       </c>
       <c r="E25">
-        <v>1.000428770786396</v>
+        <v>1.023381627025873</v>
       </c>
       <c r="F25">
-        <v>1.029640867405127</v>
+        <v>1.051303953635202</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045737904416862</v>
+        <v>1.037741125524305</v>
       </c>
       <c r="J25">
-        <v>1.017262991542747</v>
+        <v>1.028301262454842</v>
       </c>
       <c r="K25">
-        <v>1.047182331000158</v>
+        <v>1.051515053722637</v>
       </c>
       <c r="L25">
-        <v>1.013020434285164</v>
+        <v>1.026473702078231</v>
       </c>
       <c r="M25">
-        <v>1.041795834843643</v>
+        <v>1.054308542501598</v>
       </c>
       <c r="N25">
-        <v>1.00969467082045</v>
+        <v>1.013482542896089</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_237/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_237/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023704012917921</v>
+        <v>0.99765146030442</v>
       </c>
       <c r="D2">
-        <v>1.049394706718483</v>
+        <v>1.039244320186714</v>
       </c>
       <c r="E2">
-        <v>1.024287885566793</v>
+        <v>1.004447858440041</v>
       </c>
       <c r="F2">
-        <v>1.05242664932019</v>
+        <v>1.034650959346564</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037977565431155</v>
+        <v>1.047182881423811</v>
       </c>
       <c r="J2">
-        <v>1.028882740714751</v>
+        <v>1.019902643417094</v>
       </c>
       <c r="K2">
-        <v>1.052151885913943</v>
+        <v>1.050182709151049</v>
       </c>
       <c r="L2">
-        <v>1.027116827823794</v>
+        <v>1.015845573386902</v>
       </c>
       <c r="M2">
-        <v>1.055175413532968</v>
+        <v>1.045647769782204</v>
       </c>
       <c r="N2">
-        <v>1.013676984174211</v>
+        <v>1.010583947916501</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024486955413413</v>
+        <v>1.001312820641314</v>
       </c>
       <c r="D3">
-        <v>1.050044013880634</v>
+        <v>1.042178891493312</v>
       </c>
       <c r="E3">
-        <v>1.024948177048208</v>
+        <v>1.007306535588538</v>
       </c>
       <c r="F3">
-        <v>1.053244022324577</v>
+        <v>1.038208080464198</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038147354875485</v>
+        <v>1.048188639729827</v>
       </c>
       <c r="J3">
-        <v>1.02930513839509</v>
+        <v>1.021767760709769</v>
       </c>
       <c r="K3">
-        <v>1.052613851393742</v>
+        <v>1.052299096736729</v>
       </c>
       <c r="L3">
-        <v>1.027584578150941</v>
+        <v>1.017846773810722</v>
       </c>
       <c r="M3">
-        <v>1.055805618292446</v>
+        <v>1.048374352548957</v>
       </c>
       <c r="N3">
-        <v>1.01381815025647</v>
+        <v>1.011212012440027</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024994320964799</v>
+        <v>1.003640688241227</v>
       </c>
       <c r="D4">
-        <v>1.05046463775939</v>
+        <v>1.044046409309611</v>
       </c>
       <c r="E4">
-        <v>1.025376467364823</v>
+        <v>1.00912997122838</v>
       </c>
       <c r="F4">
-        <v>1.053773920522564</v>
+        <v>1.040474107519667</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038256342096704</v>
+        <v>1.048819890495092</v>
       </c>
       <c r="J4">
-        <v>1.029578539533939</v>
+        <v>1.022951721113785</v>
       </c>
       <c r="K4">
-        <v>1.052912564935757</v>
+        <v>1.053640780260588</v>
       </c>
       <c r="L4">
-        <v>1.027887598131265</v>
+        <v>1.019119440395941</v>
       </c>
       <c r="M4">
-        <v>1.056213752456323</v>
+        <v>1.050107405117342</v>
       </c>
       <c r="N4">
-        <v>1.013909484133034</v>
+        <v>1.011610559347152</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025207795049034</v>
+        <v>1.004609733326432</v>
       </c>
       <c r="D5">
-        <v>1.050641580617352</v>
+        <v>1.044824190299341</v>
       </c>
       <c r="E5">
-        <v>1.025556767098993</v>
+        <v>1.009890416167955</v>
       </c>
       <c r="F5">
-        <v>1.053996927713056</v>
+        <v>1.041418439316664</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038301949373271</v>
+        <v>1.049080667276191</v>
       </c>
       <c r="J5">
-        <v>1.029693495638608</v>
+        <v>1.023444108852582</v>
       </c>
       <c r="K5">
-        <v>1.053038092510945</v>
+        <v>1.05419831878324</v>
       </c>
       <c r="L5">
-        <v>1.028015071129478</v>
+        <v>1.019649276530448</v>
       </c>
       <c r="M5">
-        <v>1.056385413893836</v>
+        <v>1.05082868526692</v>
       </c>
       <c r="N5">
-        <v>1.013947878031158</v>
+        <v>1.011776271355435</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025243648649691</v>
+        <v>1.004771886126723</v>
       </c>
       <c r="D6">
-        <v>1.050671296644462</v>
+        <v>1.044954358827661</v>
       </c>
       <c r="E6">
-        <v>1.025587054616055</v>
+        <v>1.010017743831573</v>
       </c>
       <c r="F6">
-        <v>1.0540343854939</v>
+        <v>1.041576516327881</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038309594642772</v>
+        <v>1.049124185228367</v>
       </c>
       <c r="J6">
-        <v>1.029712798308662</v>
+        <v>1.023526472978216</v>
       </c>
       <c r="K6">
-        <v>1.053059166072092</v>
+        <v>1.054291554475321</v>
       </c>
       <c r="L6">
-        <v>1.028036479256366</v>
+        <v>1.019737937586382</v>
       </c>
       <c r="M6">
-        <v>1.05641424134969</v>
+        <v>1.05094936872316</v>
       </c>
       <c r="N6">
-        <v>1.013954324354138</v>
+        <v>1.011803988615888</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024997172720342</v>
+        <v>1.003653673974759</v>
       </c>
       <c r="D7">
-        <v>1.050467001638711</v>
+        <v>1.044056830598024</v>
       </c>
       <c r="E7">
-        <v>1.025378875572585</v>
+        <v>1.00914015618139</v>
       </c>
       <c r="F7">
-        <v>1.053776899423169</v>
+        <v>1.040486758060838</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038256952333231</v>
+        <v>1.048823392985351</v>
       </c>
       <c r="J7">
-        <v>1.029580075512854</v>
+        <v>1.022958321270045</v>
       </c>
       <c r="K7">
-        <v>1.052914242446062</v>
+        <v>1.053648255495385</v>
       </c>
       <c r="L7">
-        <v>1.027889301105775</v>
+        <v>1.019126540324661</v>
       </c>
       <c r="M7">
-        <v>1.056216045885616</v>
+        <v>1.050117071327206</v>
       </c>
       <c r="N7">
-        <v>1.013909997166016</v>
+        <v>1.011612780761952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023968455746908</v>
+        <v>0.9988975602003469</v>
       </c>
       <c r="D8">
-        <v>1.049614042771164</v>
+        <v>1.040242673767266</v>
       </c>
       <c r="E8">
-        <v>1.024510818178264</v>
+        <v>1.005419518034631</v>
       </c>
       <c r="F8">
-        <v>1.052702675321351</v>
+        <v>1.035860633571439</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03803512787527</v>
+        <v>1.047526876104062</v>
       </c>
       <c r="J8">
-        <v>1.0290254743314</v>
+        <v>1.020537790295225</v>
       </c>
       <c r="K8">
-        <v>1.052308051651017</v>
+        <v>1.050903786816966</v>
       </c>
       <c r="L8">
-        <v>1.027274832042936</v>
+        <v>1.016526575548226</v>
       </c>
       <c r="M8">
-        <v>1.055388320696573</v>
+        <v>1.046575808606438</v>
       </c>
       <c r="N8">
-        <v>1.013724693707391</v>
+        <v>1.01079785762377</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.022161544357699</v>
+        <v>0.9901868475389486</v>
       </c>
       <c r="D9">
-        <v>1.048114776451254</v>
+        <v>1.033273102349727</v>
       </c>
       <c r="E9">
-        <v>1.022989221290179</v>
+        <v>0.9986535732897454</v>
       </c>
       <c r="F9">
-        <v>1.05081753512059</v>
+        <v>1.027424721186113</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037637555695681</v>
+        <v>1.045088937248601</v>
       </c>
       <c r="J9">
-        <v>1.028048877206913</v>
+        <v>1.016090956917312</v>
       </c>
       <c r="K9">
-        <v>1.051238334209697</v>
+        <v>1.045848465176167</v>
       </c>
       <c r="L9">
-        <v>1.026194834354435</v>
+        <v>1.011768533165254</v>
       </c>
       <c r="M9">
-        <v>1.053932521941787</v>
+        <v>1.040087987190032</v>
       </c>
       <c r="N9">
-        <v>1.013398109177758</v>
+        <v>1.009299699769094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020960957163914</v>
+        <v>0.9841378408974019</v>
       </c>
       <c r="D10">
-        <v>1.04711791235629</v>
+        <v>1.028447244904557</v>
       </c>
       <c r="E10">
-        <v>1.021980337469564</v>
+        <v>0.993990068568069</v>
       </c>
       <c r="F10">
-        <v>1.049566136307951</v>
+        <v>1.021593819746781</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037368056887984</v>
+        <v>1.043355218600222</v>
       </c>
       <c r="J10">
-        <v>1.027398346157633</v>
+        <v>1.012995246149543</v>
       </c>
       <c r="K10">
-        <v>1.050524252634974</v>
+        <v>1.042321193663347</v>
       </c>
       <c r="L10">
-        <v>1.0254767860287</v>
+        <v>1.008468688692501</v>
       </c>
       <c r="M10">
-        <v>1.052963954750088</v>
+        <v>1.035583837653747</v>
       </c>
       <c r="N10">
-        <v>1.013180376197445</v>
+        <v>1.008256176258149</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020442066030526</v>
+        <v>0.9814564113755886</v>
       </c>
       <c r="D11">
-        <v>1.04668691270539</v>
+        <v>1.026312105364771</v>
       </c>
       <c r="E11">
-        <v>1.021544811787307</v>
+        <v>0.9919316531376098</v>
       </c>
       <c r="F11">
-        <v>1.049025566107074</v>
+        <v>1.019016118807688</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037250315167748</v>
+        <v>1.042577511406083</v>
       </c>
       <c r="J11">
-        <v>1.02711680167035</v>
+        <v>1.01162150375511</v>
       </c>
       <c r="K11">
-        <v>1.050214845037507</v>
+        <v>1.040754306670246</v>
       </c>
       <c r="L11">
-        <v>1.025166343560417</v>
+        <v>1.007007347738789</v>
       </c>
       <c r="M11">
-        <v>1.052545044010489</v>
+        <v>1.033588113451663</v>
       </c>
       <c r="N11">
-        <v>1.013086098935921</v>
+        <v>1.007793001759685</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020249474492886</v>
+        <v>0.9804506361712514</v>
       </c>
       <c r="D12">
-        <v>1.04652691985417</v>
+        <v>1.025511918694403</v>
       </c>
       <c r="E12">
-        <v>1.021383239608566</v>
+        <v>0.9911609405185973</v>
       </c>
       <c r="F12">
-        <v>1.048824970887943</v>
+        <v>1.018050361234877</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037206424144171</v>
+        <v>1.04228446541542</v>
       </c>
       <c r="J12">
-        <v>1.027012245807087</v>
+        <v>1.011106039623465</v>
       </c>
       <c r="K12">
-        <v>1.050099887993356</v>
+        <v>1.04016614578307</v>
       </c>
       <c r="L12">
-        <v>1.025051104548288</v>
+        <v>1.00645946507512</v>
       </c>
       <c r="M12">
-        <v>1.052389516711111</v>
+        <v>1.032839727116559</v>
       </c>
       <c r="N12">
-        <v>1.013051081023612</v>
+        <v>1.007619193483392</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020290779316611</v>
+        <v>0.9806668278265805</v>
       </c>
       <c r="D13">
-        <v>1.046561234322763</v>
+        <v>1.025683887152785</v>
       </c>
       <c r="E13">
-        <v>1.021417888241453</v>
+        <v>0.9913265423928675</v>
       </c>
       <c r="F13">
-        <v>1.048867990309658</v>
+        <v>1.018257900062933</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0372158459873</v>
+        <v>1.042347515435748</v>
       </c>
       <c r="J13">
-        <v>1.027034672364925</v>
+        <v>1.011216846769205</v>
       </c>
       <c r="K13">
-        <v>1.050124547969171</v>
+        <v>1.040292589995788</v>
       </c>
       <c r="L13">
-        <v>1.025075820374439</v>
+        <v>1.006577220691314</v>
       </c>
       <c r="M13">
-        <v>1.052422874429385</v>
+        <v>1.033000583569626</v>
       </c>
       <c r="N13">
-        <v>1.0130585924381</v>
+        <v>1.007656556863572</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020426143329562</v>
+        <v>0.9813734756346358</v>
       </c>
       <c r="D14">
-        <v>1.046673685602307</v>
+        <v>1.026246108108014</v>
       </c>
       <c r="E14">
-        <v>1.021531452059601</v>
+        <v>0.9918680722598422</v>
       </c>
       <c r="F14">
-        <v>1.049008980819627</v>
+        <v>1.018936460016878</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037246690310168</v>
+        <v>1.042553373906108</v>
       </c>
       <c r="J14">
-        <v>1.027108158587752</v>
+        <v>1.011579002472882</v>
       </c>
       <c r="K14">
-        <v>1.050205343240567</v>
+        <v>1.040705815784141</v>
       </c>
       <c r="L14">
-        <v>1.025156816367251</v>
+        <v>1.006962164290445</v>
       </c>
       <c r="M14">
-        <v>1.052532186538504</v>
+        <v>1.033526397727184</v>
       </c>
       <c r="N14">
-        <v>1.013083204324063</v>
+        <v>1.007778671091985</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02050956519678</v>
+        <v>0.9818075563191152</v>
       </c>
       <c r="D15">
-        <v>1.046742983808741</v>
+        <v>1.026591561972616</v>
       </c>
       <c r="E15">
-        <v>1.021601449229596</v>
+        <v>0.9922009072061341</v>
       </c>
       <c r="F15">
-        <v>1.04909587584781</v>
+        <v>1.019353434941019</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037265673800462</v>
+        <v>1.042679653868761</v>
       </c>
       <c r="J15">
-        <v>1.027153438868155</v>
+        <v>1.011801444142081</v>
       </c>
       <c r="K15">
-        <v>1.050255120040936</v>
+        <v>1.040959596628236</v>
       </c>
       <c r="L15">
-        <v>1.025206730407131</v>
+        <v>1.007198662180335</v>
       </c>
       <c r="M15">
-        <v>1.052599547305363</v>
+        <v>1.033849422124648</v>
       </c>
       <c r="N15">
-        <v>1.013098368647538</v>
+        <v>1.007853673902781</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020995414875685</v>
+        <v>0.9843144523244429</v>
       </c>
       <c r="D16">
-        <v>1.047146530237703</v>
+        <v>1.02858796604945</v>
       </c>
       <c r="E16">
-        <v>1.022009270016637</v>
+        <v>0.9941258339969349</v>
       </c>
       <c r="F16">
-        <v>1.049602039621798</v>
+        <v>1.021763750504481</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037375849027154</v>
+        <v>1.043406254013711</v>
       </c>
       <c r="J16">
-        <v>1.027417034393291</v>
+        <v>1.013085699331937</v>
       </c>
       <c r="K16">
-        <v>1.050544782803601</v>
+        <v>1.042424332023354</v>
       </c>
       <c r="L16">
-        <v>1.02549739925065</v>
+        <v>1.008564972231736</v>
       </c>
       <c r="M16">
-        <v>1.05299176686188</v>
+        <v>1.035715308511932</v>
       </c>
       <c r="N16">
-        <v>1.013186633163317</v>
+        <v>1.008286671730279</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021300436820693</v>
+        <v>0.9858700194989807</v>
       </c>
       <c r="D17">
-        <v>1.047399839506207</v>
+        <v>1.029827891253478</v>
       </c>
       <c r="E17">
-        <v>1.022265442078388</v>
+        <v>0.9953226504151804</v>
       </c>
       <c r="F17">
-        <v>1.049919890746407</v>
+        <v>1.023261285373417</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037444679291006</v>
+        <v>1.043854724265264</v>
       </c>
       <c r="J17">
-        <v>1.027582419234415</v>
+        <v>1.013882234391138</v>
       </c>
       <c r="K17">
-        <v>1.050726426694587</v>
+        <v>1.043332389326138</v>
       </c>
       <c r="L17">
-        <v>1.02567985691948</v>
+        <v>1.00941319056884</v>
       </c>
       <c r="M17">
-        <v>1.053237927081987</v>
+        <v>1.036873392704155</v>
       </c>
       <c r="N17">
-        <v>1.013242000182828</v>
+        <v>1.008555204776606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021478444528505</v>
+        <v>0.9867713875017715</v>
       </c>
       <c r="D18">
-        <v>1.047547653003548</v>
+        <v>1.030546745923516</v>
       </c>
       <c r="E18">
-        <v>1.022414990875913</v>
+        <v>0.9960169796135091</v>
       </c>
       <c r="F18">
-        <v>1.050105412606226</v>
+        <v>1.024129693617875</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037484725750232</v>
+        <v>1.044113712792712</v>
       </c>
       <c r="J18">
-        <v>1.027678898810883</v>
+        <v>1.014343642588601</v>
       </c>
       <c r="K18">
-        <v>1.050832356562037</v>
+        <v>1.04385824179912</v>
       </c>
       <c r="L18">
-        <v>1.025786327336031</v>
+        <v>1.009904821193597</v>
       </c>
       <c r="M18">
-        <v>1.053381554865582</v>
+        <v>1.037544522009639</v>
       </c>
       <c r="N18">
-        <v>1.013274295043252</v>
+        <v>1.008710747636861</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021539156371388</v>
+        <v>0.9870777311592343</v>
       </c>
       <c r="D19">
-        <v>1.047598064121428</v>
+        <v>1.030791122871445</v>
       </c>
       <c r="E19">
-        <v>1.022466004796363</v>
+        <v>0.9962530987260486</v>
       </c>
       <c r="F19">
-        <v>1.05016869184487</v>
+        <v>1.024424947012202</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037498363390919</v>
+        <v>1.044201584156114</v>
       </c>
       <c r="J19">
-        <v>1.027711798085988</v>
+        <v>1.01450043430879</v>
       </c>
       <c r="K19">
-        <v>1.050868472478418</v>
+        <v>1.044036905115807</v>
       </c>
       <c r="L19">
-        <v>1.025822638745615</v>
+        <v>1.010071930938591</v>
       </c>
       <c r="M19">
-        <v>1.053430536090101</v>
+        <v>1.037772627775032</v>
       </c>
       <c r="N19">
-        <v>1.013285306777997</v>
+        <v>1.008763601077732</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021267701161233</v>
+        <v>0.9857037422118904</v>
       </c>
       <c r="D20">
-        <v>1.047372655340613</v>
+        <v>1.029695313164852</v>
       </c>
       <c r="E20">
-        <v>1.022237943989914</v>
+        <v>0.9951946333769532</v>
       </c>
       <c r="F20">
-        <v>1.04988577541674</v>
+        <v>1.023101141748091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037437304903482</v>
+        <v>1.04380687704082</v>
       </c>
       <c r="J20">
-        <v>1.027564673611094</v>
+        <v>1.013797105798978</v>
       </c>
       <c r="K20">
-        <v>1.050706940075216</v>
+        <v>1.043235358087842</v>
       </c>
       <c r="L20">
-        <v>1.025660276175588</v>
+        <v>1.009322508940843</v>
       </c>
       <c r="M20">
-        <v>1.053211511576753</v>
+        <v>1.036749594243814</v>
       </c>
       <c r="N20">
-        <v>1.013236059799982</v>
+        <v>1.008526506700029</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.02038627790863</v>
+        <v>0.9811656588445939</v>
       </c>
       <c r="D21">
-        <v>1.046640568736758</v>
+        <v>1.026080746247875</v>
       </c>
       <c r="E21">
-        <v>1.021498004768697</v>
+        <v>0.99170877640373</v>
       </c>
       <c r="F21">
-        <v>1.048967457182715</v>
+        <v>1.018736872538365</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037237611739865</v>
+        <v>1.042492869811241</v>
       </c>
       <c r="J21">
-        <v>1.02708651810084</v>
+        <v>1.011472501674983</v>
       </c>
       <c r="K21">
-        <v>1.050181551842523</v>
+        <v>1.040584302553235</v>
       </c>
       <c r="L21">
-        <v>1.025132963035398</v>
+        <v>1.006848949723193</v>
       </c>
       <c r="M21">
-        <v>1.052499994766774</v>
+        <v>1.033371756356565</v>
       </c>
       <c r="N21">
-        <v>1.01307595670951</v>
+        <v>1.007742760737098</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019832947778163</v>
+        <v>0.9782556105215852</v>
       </c>
       <c r="D22">
-        <v>1.046180854175439</v>
+        <v>1.023766901353604</v>
       </c>
       <c r="E22">
-        <v>1.021033942127719</v>
+        <v>0.9894815045498223</v>
       </c>
       <c r="F22">
-        <v>1.048391212771472</v>
+        <v>1.015944769399532</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037111151616179</v>
+        <v>1.041642508077169</v>
       </c>
       <c r="J22">
-        <v>1.026786012388898</v>
+        <v>1.009980769313211</v>
       </c>
       <c r="K22">
-        <v>1.049851050758103</v>
+        <v>1.038881790504748</v>
       </c>
       <c r="L22">
-        <v>1.024801844234825</v>
+        <v>1.005264254956909</v>
       </c>
       <c r="M22">
-        <v>1.052053069624916</v>
+        <v>1.031206839548229</v>
       </c>
       <c r="N22">
-        <v>1.012975298754973</v>
+        <v>1.007239744734231</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.020126196827173</v>
+        <v>0.9798038147352461</v>
       </c>
       <c r="D23">
-        <v>1.046424502139066</v>
+        <v>1.024997513248079</v>
       </c>
       <c r="E23">
-        <v>1.021279839280239</v>
+        <v>0.9906656836255483</v>
       </c>
       <c r="F23">
-        <v>1.048696582148432</v>
+        <v>1.017429594861584</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037178276050709</v>
+        <v>1.04209563425736</v>
       </c>
       <c r="J23">
-        <v>1.026945303430898</v>
+        <v>1.010774491839781</v>
       </c>
       <c r="K23">
-        <v>1.050026271089048</v>
+        <v>1.039787779030144</v>
       </c>
       <c r="L23">
-        <v>1.024977335911459</v>
+        <v>1.00610719287842</v>
       </c>
       <c r="M23">
-        <v>1.052289951353618</v>
+        <v>1.032358494300605</v>
       </c>
       <c r="N23">
-        <v>1.013028658788145</v>
+        <v>1.007507396213686</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021282492707784</v>
+        <v>0.9857788941725659</v>
       </c>
       <c r="D24">
-        <v>1.047384938502123</v>
+        <v>1.029755232990912</v>
       </c>
       <c r="E24">
-        <v>1.022250368797324</v>
+        <v>0.9952524903480264</v>
       </c>
       <c r="F24">
-        <v>1.049901190280809</v>
+        <v>1.023173519429228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037440637384166</v>
+        <v>1.043828505157984</v>
       </c>
       <c r="J24">
-        <v>1.027572692053199</v>
+        <v>1.013835581611985</v>
       </c>
       <c r="K24">
-        <v>1.050715745301542</v>
+        <v>1.043279214062463</v>
       </c>
       <c r="L24">
-        <v>1.025669123729141</v>
+        <v>1.00936349369558</v>
       </c>
       <c r="M24">
-        <v>1.053223447462506</v>
+        <v>1.036805546899172</v>
       </c>
       <c r="N24">
-        <v>1.013238744002689</v>
+        <v>1.008539477483039</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022627973542318</v>
+        <v>0.9924798672011147</v>
       </c>
       <c r="D25">
-        <v>1.048501915093876</v>
+        <v>1.035105593774328</v>
       </c>
       <c r="E25">
-        <v>1.023381627025873</v>
+        <v>1.000428770786395</v>
       </c>
       <c r="F25">
-        <v>1.051303953635202</v>
+        <v>1.029640867405126</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037741125524305</v>
+        <v>1.045737904416861</v>
       </c>
       <c r="J25">
-        <v>1.028301262454842</v>
+        <v>1.017262991542746</v>
       </c>
       <c r="K25">
-        <v>1.051515053722637</v>
+        <v>1.047182331000157</v>
       </c>
       <c r="L25">
-        <v>1.026473702078231</v>
+        <v>1.013020434285163</v>
       </c>
       <c r="M25">
-        <v>1.054308542501598</v>
+        <v>1.041795834843642</v>
       </c>
       <c r="N25">
-        <v>1.013482542896089</v>
+        <v>1.00969467082045</v>
       </c>
     </row>
   </sheetData>
